--- a/information/parts.xlsx
+++ b/information/parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\NyanTimer\information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D6FCD9-3C92-4160-9815-31EAA967D43A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804050BB-4DCA-44F5-8138-A100084B7A30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4620" windowWidth="14400" windowHeight="7545" xr2:uid="{61B38AC8-28B7-467B-AB5A-C8723770C29B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61B38AC8-28B7-467B-AB5A-C8723770C29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>NyanTimer 部品表</t>
     <rPh sb="10" eb="13">
@@ -76,13 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>価格</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>個数</t>
     <rPh sb="0" eb="2">
       <t>コスウ</t>
@@ -204,6 +197,75 @@
   <si>
     <t>スライドスイッチ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-11237/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-11299/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-09644/</t>
+  </si>
+  <si>
+    <t>16mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-11577/</t>
+  </si>
+  <si>
+    <t>3mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03647/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-08789/</t>
+  </si>
+  <si>
+    <t>1u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電池</t>
+    <rPh sb="0" eb="2">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CR2450</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.yodobashi.com/product/100000001001156421/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03179/</t>
   </si>
 </sst>
 </file>
@@ -567,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1244524C-086B-41B1-B2CD-FBB1AC689235}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -578,10 +640,11 @@
     <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,24 +658,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>320</v>
@@ -620,16 +686,23 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>320</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>35</v>
@@ -637,11 +710,18 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <f t="shared" ref="G3:G18" si="0">E3*F3</f>
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -654,16 +734,23 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>70</v>
@@ -671,26 +758,71 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>450</v>
@@ -698,13 +830,20 @@
       <c r="F8">
         <v>0.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -712,68 +851,255 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>E19*F19</f>
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>105</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>E20*F20</f>
+        <v>210</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
